--- a/score_results/H_results2.xlsx
+++ b/score_results/H_results2.xlsx
@@ -500,19 +500,19 @@
         <v>556.9257557268083</v>
       </c>
       <c r="D2" t="n">
-        <v>6870.196728825985</v>
+        <v>3424.944467564316</v>
       </c>
       <c r="E2" t="n">
-        <v>32.28854157158285</v>
+        <v>484.677168357569</v>
       </c>
       <c r="F2" t="n">
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>6788.088191908993</v>
+        <v>8796.929206199127</v>
       </c>
       <c r="H2" t="n">
-        <v>17550.68204641592</v>
+        <v>17551.06508233471</v>
       </c>
       <c r="I2" t="n">
         <v>16364.6056074184</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -572,22 +572,22 @@
         <v>358.750777873705</v>
       </c>
       <c r="D4" t="n">
-        <v>3188.837681797169</v>
+        <v>2877.307189319954</v>
       </c>
       <c r="E4" t="n">
-        <v>242.5463747761262</v>
+        <v>154.3575861924115</v>
       </c>
       <c r="F4" t="n">
         <v>20575.46131808642</v>
       </c>
       <c r="G4" t="n">
-        <v>17096.50515344827</v>
+        <v>8090.456206809012</v>
       </c>
       <c r="H4" t="n">
-        <v>20575.34399756911</v>
+        <v>20574.12118137257</v>
       </c>
       <c r="I4" t="n">
-        <v>18548.07822914176</v>
+        <v>18548.07822914175</v>
       </c>
       <c r="J4" t="n">
         <v>17.38367850827479</v>
@@ -644,19 +644,19 @@
         <v>178.6389392936196</v>
       </c>
       <c r="D6" t="n">
-        <v>7491.833489158346</v>
+        <v>1237.120576001451</v>
       </c>
       <c r="E6" t="n">
-        <v>282.8681307587898</v>
+        <v>56.79440797565879</v>
       </c>
       <c r="F6" t="n">
         <v>23975.76916397665</v>
       </c>
       <c r="G6" t="n">
-        <v>21985.98407446607</v>
+        <v>22867.81864788789</v>
       </c>
       <c r="H6" t="n">
-        <v>23973.99886340679</v>
+        <v>23975.60638461409</v>
       </c>
       <c r="I6" t="n">
         <v>21536.66135183787</v>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -716,22 +716,22 @@
         <v>4890.695251542254</v>
       </c>
       <c r="D8" t="n">
-        <v>8029.446821933034</v>
+        <v>8914.828758143189</v>
       </c>
       <c r="E8" t="n">
-        <v>282.011739434517</v>
+        <v>312.0732815013836</v>
       </c>
       <c r="F8" t="n">
         <v>16485.3525975895</v>
       </c>
       <c r="G8" t="n">
-        <v>6155.605932540064</v>
+        <v>11669.49954242764</v>
       </c>
       <c r="H8" t="n">
-        <v>16487.13669997498</v>
+        <v>16486.4064468883</v>
       </c>
       <c r="I8" t="n">
-        <v>14654.39002852621</v>
+        <v>14864.84893940221</v>
       </c>
       <c r="J8" t="n">
         <v>21.08310080324092</v>
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -788,22 +788,22 @@
         <v>0.2070632006355356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3644928401567236</v>
+        <v>0.2970319122043515</v>
       </c>
       <c r="E10" t="n">
-        <v>6.168011248539092</v>
+        <v>0.541311913577678</v>
       </c>
       <c r="F10" t="n">
         <v>0.5923684558414695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4978133868217219</v>
+        <v>0.7762726214069916</v>
       </c>
       <c r="H10" t="n">
-        <v>0.592108545773244</v>
+        <v>0.5920934096574691</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6052419220272489</v>
+        <v>0.605241922027249</v>
       </c>
       <c r="J10" t="n">
         <v>11.04688622065357</v>
@@ -827,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -860,19 +860,19 @@
         <v>0.2618251381489292</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5094085423062568</v>
+        <v>0.4555245410713386</v>
       </c>
       <c r="E12" t="n">
-        <v>1.539230151766218</v>
+        <v>1.613615548553042</v>
       </c>
       <c r="F12" t="n">
         <v>0.5863975080012351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5796782568575417</v>
+        <v>1.031524621611537</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5864200361333221</v>
+        <v>0.5861516886153356</v>
       </c>
       <c r="I12" t="n">
         <v>0.5999571749332518</v>
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -932,19 +932,19 @@
         <v>0.2252978603354784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5320090816263759</v>
+        <v>0.3571355626304675</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8386933780734945</v>
+        <v>2.075414463387961</v>
       </c>
       <c r="F14" t="n">
         <v>0.5709397031663824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5520881640189419</v>
+        <v>0.5645768729145372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5705992003002501</v>
+        <v>0.5709792107757194</v>
       </c>
       <c r="I14" t="n">
         <v>0.5933407416809126</v>
@@ -974,13 +974,13 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -1004,22 +1004,22 @@
         <v>0.3952317172358478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5081000464353996</v>
+        <v>0.5227831521929686</v>
       </c>
       <c r="E16" t="n">
-        <v>6.647752843008743</v>
+        <v>6.228025278399887</v>
       </c>
       <c r="F16" t="n">
         <v>0.6090467270945127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4919151574965031</v>
+        <v>0.5433896552225285</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6082247209034977</v>
+        <v>0.608331604076741</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6407793663751614</v>
+        <v>0.6371996189112458</v>
       </c>
       <c r="J16" t="n">
         <v>14.71543129439824</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -1076,19 +1076,19 @@
         <v>0.7681741860162741</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5991966093950332</v>
+        <v>0.6302769034977607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7968840181773721</v>
+        <v>0.7164183903075821</v>
       </c>
       <c r="F18" t="n">
         <v>0.5210518335837945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4218885172214436</v>
+        <v>0.5019163484184574</v>
       </c>
       <c r="H18" t="n">
-        <v>0.521031863078782</v>
+        <v>0.5210410995443285</v>
       </c>
       <c r="I18" t="n">
         <v>0.5010607494723366</v>
@@ -1109,25 +1109,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
         <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1148,19 +1148,19 @@
         <v>0.7572309328392147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3540472931424672</v>
+        <v>0.4209233283029717</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7970142995136434</v>
+        <v>0.8183238331218625</v>
       </c>
       <c r="F20" t="n">
         <v>0.525968655068758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.496852481188517</v>
+        <v>0.5121509000566516</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5259617231271564</v>
+        <v>0.5261433959239326</v>
       </c>
       <c r="I20" t="n">
         <v>0.4993265309068735</v>
@@ -1184,25 +1184,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>6</v>
       </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1220,19 +1220,19 @@
         <v>0.7082269381265336</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4244209803076225</v>
+        <v>0.6771743506881457</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7785488744012287</v>
+        <v>0.7983276405772873</v>
       </c>
       <c r="F22" t="n">
         <v>0.5372441699676417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5500063912979563</v>
+        <v>0.5433441491227111</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5376338369715714</v>
+        <v>0.5372027292261208</v>
       </c>
       <c r="I22" t="n">
         <v>0.5126956298950073</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1265,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
         <v>8</v>
@@ -1292,22 +1292,22 @@
         <v>0.5906878835359864</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5216156738463039</v>
+        <v>0.5456897917493368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7608419279581102</v>
+        <v>0.7586586556191329</v>
       </c>
       <c r="F24" t="n">
         <v>0.5165263286216938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5138059905262153</v>
+        <v>0.5107077988349364</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5167976142366348</v>
+        <v>0.5167465216371675</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4695013545823319</v>
+        <v>0.4723827405142896</v>
       </c>
       <c r="J24" t="n">
         <v>0.3996009822493678</v>

--- a/score_results/H_results2.xlsx
+++ b/score_results/H_results2.xlsx
@@ -503,22 +503,22 @@
         <v>3424.944467564316</v>
       </c>
       <c r="E2" t="n">
-        <v>484.677168357569</v>
+        <v>113.8278992574286</v>
       </c>
       <c r="F2" t="n">
         <v>17554.21825360228</v>
       </c>
       <c r="G2" t="n">
-        <v>8796.929206199127</v>
+        <v>6809.544914711218</v>
       </c>
       <c r="H2" t="n">
-        <v>17551.06508233471</v>
+        <v>17554.35702189591</v>
       </c>
       <c r="I2" t="n">
-        <v>16364.6056074184</v>
+        <v>16355.36534001732</v>
       </c>
       <c r="J2" t="n">
-        <v>14.31685881436579</v>
+        <v>45.50016173466499</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -575,22 +575,22 @@
         <v>2877.307189319954</v>
       </c>
       <c r="E4" t="n">
-        <v>154.3575861924115</v>
+        <v>543.1556372284442</v>
       </c>
       <c r="F4" t="n">
         <v>20575.46131808642</v>
       </c>
       <c r="G4" t="n">
-        <v>8090.456206809012</v>
+        <v>17086.97919129642</v>
       </c>
       <c r="H4" t="n">
-        <v>20574.12118137257</v>
+        <v>20575.43222416268</v>
       </c>
       <c r="I4" t="n">
-        <v>18548.07822914175</v>
+        <v>18548.07822914176</v>
       </c>
       <c r="J4" t="n">
-        <v>17.38367850827479</v>
+        <v>47.19849772479917</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -647,22 +647,22 @@
         <v>1237.120576001451</v>
       </c>
       <c r="E6" t="n">
-        <v>56.79440797565879</v>
+        <v>393.2853481917053</v>
       </c>
       <c r="F6" t="n">
         <v>23975.76916397665</v>
       </c>
       <c r="G6" t="n">
-        <v>22867.81864788789</v>
+        <v>22232.704025608</v>
       </c>
       <c r="H6" t="n">
-        <v>23975.60638461409</v>
+        <v>23975.67923296789</v>
       </c>
       <c r="I6" t="n">
-        <v>21536.66135183787</v>
+        <v>21532.30774837841</v>
       </c>
       <c r="J6" t="n">
-        <v>19.43145794580499</v>
+        <v>48.62192844956628</v>
       </c>
     </row>
     <row r="7">
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -719,22 +719,22 @@
         <v>8914.828758143189</v>
       </c>
       <c r="E8" t="n">
-        <v>312.0732815013836</v>
+        <v>180.4631534366874</v>
       </c>
       <c r="F8" t="n">
         <v>16485.3525975895</v>
       </c>
       <c r="G8" t="n">
-        <v>11669.49954242764</v>
+        <v>4553.89211985226</v>
       </c>
       <c r="H8" t="n">
-        <v>16486.4064468883</v>
+        <v>16487.29884896185</v>
       </c>
       <c r="I8" t="n">
         <v>14864.84893940221</v>
       </c>
       <c r="J8" t="n">
-        <v>21.08310080324092</v>
+        <v>40.05498549708958</v>
       </c>
     </row>
     <row r="9">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -791,22 +791,22 @@
         <v>0.2970319122043515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.541311913577678</v>
+        <v>6.378553470222484</v>
       </c>
       <c r="F10" t="n">
         <v>0.5923684558414695</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7762726214069916</v>
+        <v>0.4981854110418555</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5920934096574691</v>
+        <v>0.5923251423154977</v>
       </c>
       <c r="I10" t="n">
-        <v>0.605241922027249</v>
+        <v>0.6052957181474444</v>
       </c>
       <c r="J10" t="n">
-        <v>11.04688622065357</v>
+        <v>14.83102567175364</v>
       </c>
     </row>
     <row r="11">
@@ -827,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -863,22 +863,22 @@
         <v>0.4555245410713386</v>
       </c>
       <c r="E12" t="n">
-        <v>1.613615548553042</v>
+        <v>4.127605537892626</v>
       </c>
       <c r="F12" t="n">
         <v>0.5863975080012351</v>
       </c>
       <c r="G12" t="n">
-        <v>1.031524621611537</v>
+        <v>0.5797070920391136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5861516886153356</v>
+        <v>0.5863959694931141</v>
       </c>
       <c r="I12" t="n">
         <v>0.5999571749332518</v>
       </c>
       <c r="J12" t="n">
-        <v>13.40544712129626</v>
+        <v>6.201156847739399</v>
       </c>
     </row>
     <row r="13">
@@ -902,16 +902,16 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>8</v>
@@ -935,22 +935,22 @@
         <v>0.3571355626304675</v>
       </c>
       <c r="E14" t="n">
-        <v>2.075414463387961</v>
+        <v>4.957698844777817</v>
       </c>
       <c r="F14" t="n">
         <v>0.5709397031663824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5645768729145372</v>
+        <v>0.5545583453790622</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5709792107757194</v>
+        <v>0.5709718343930549</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5933407416809126</v>
+        <v>0.5933371687547812</v>
       </c>
       <c r="J14" t="n">
-        <v>8.204292450667351</v>
+        <v>5.283008508050425</v>
       </c>
     </row>
     <row r="15">
@@ -1007,22 +1007,22 @@
         <v>0.5227831521929686</v>
       </c>
       <c r="E16" t="n">
-        <v>6.228025278399887</v>
+        <v>3.138790361039546</v>
       </c>
       <c r="F16" t="n">
         <v>0.6090467270945127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5433896552225285</v>
+        <v>0.4113397598017161</v>
       </c>
       <c r="H16" t="n">
-        <v>0.608331604076741</v>
+        <v>0.6083401069126801</v>
       </c>
       <c r="I16" t="n">
         <v>0.6371996189112458</v>
       </c>
       <c r="J16" t="n">
-        <v>14.71543129439824</v>
+        <v>13.46212935012528</v>
       </c>
     </row>
     <row r="17">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -1079,22 +1079,22 @@
         <v>0.6302769034977607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7164183903075821</v>
+        <v>0.4614500500829441</v>
       </c>
       <c r="F18" t="n">
         <v>0.5210518335837945</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5019163484184574</v>
+        <v>0.4217699364793865</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5210410995443285</v>
+        <v>0.5210632334645875</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5010607494723366</v>
+        <v>0.5009265388966506</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4062106991031403</v>
+        <v>0.1942367027469519</v>
       </c>
     </row>
     <row r="19">
@@ -1112,22 +1112,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
         <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1151,22 +1151,22 @@
         <v>0.4209233283029717</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8183238331218625</v>
+        <v>0.6717360371416181</v>
       </c>
       <c r="F20" t="n">
         <v>0.525968655068758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5121509000566516</v>
+        <v>0.4965821404509979</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5261433959239326</v>
+        <v>0.5259639116643898</v>
       </c>
       <c r="I20" t="n">
         <v>0.4993265309068735</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4061630345455899</v>
+        <v>0.1809421641975307</v>
       </c>
     </row>
     <row r="21">
@@ -1181,25 +1181,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
@@ -1223,22 +1223,22 @@
         <v>0.6771743506881457</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7983276405772873</v>
+        <v>0.6644253995649884</v>
       </c>
       <c r="F22" t="n">
         <v>0.5372441699676417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5433441491227111</v>
+        <v>0.5480033368869814</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5372027292261208</v>
+        <v>0.5372150544351501</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5126956298950073</v>
+        <v>0.512714077750078</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4027279952706375</v>
+        <v>0.2104269736688834</v>
       </c>
     </row>
     <row r="23">
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1295,22 +1295,22 @@
         <v>0.5456897917493368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7586586556191329</v>
+        <v>0.6061808599084931</v>
       </c>
       <c r="F24" t="n">
         <v>0.5165263286216938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5107077988349364</v>
+        <v>0.5894873906277611</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5167465216371675</v>
+        <v>0.5167591292874544</v>
       </c>
       <c r="I24" t="n">
         <v>0.4723827405142896</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3996009822493678</v>
+        <v>0.1903397128883785</v>
       </c>
     </row>
     <row r="25">
@@ -1328,19 +1328,19 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>

--- a/score_results/H_results2.xlsx
+++ b/score_results/H_results2.xlsx
@@ -503,7 +503,7 @@
         <v>3424.944467564316</v>
       </c>
       <c r="E2" t="n">
-        <v>113.8278992574286</v>
+        <v>82.89539321929617</v>
       </c>
       <c r="F2" t="n">
         <v>17554.21825360228</v>
@@ -512,13 +512,13 @@
         <v>6809.544914711218</v>
       </c>
       <c r="H2" t="n">
-        <v>17554.35702189591</v>
+        <v>17550.90030889612</v>
       </c>
       <c r="I2" t="n">
-        <v>16355.36534001732</v>
+        <v>16364.6056074184</v>
       </c>
       <c r="J2" t="n">
-        <v>45.50016173466499</v>
+        <v>59.2367651876698</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>3</v>
@@ -575,22 +575,22 @@
         <v>2877.307189319954</v>
       </c>
       <c r="E4" t="n">
-        <v>543.1556372284442</v>
+        <v>253.8209226860599</v>
       </c>
       <c r="F4" t="n">
         <v>20575.46131808642</v>
       </c>
       <c r="G4" t="n">
-        <v>17086.97919129642</v>
+        <v>18061.20503683716</v>
       </c>
       <c r="H4" t="n">
-        <v>20575.43222416268</v>
+        <v>20573.2222086682</v>
       </c>
       <c r="I4" t="n">
         <v>18548.07822914176</v>
       </c>
       <c r="J4" t="n">
-        <v>47.19849772479917</v>
+        <v>62.26067825106821</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -647,22 +647,22 @@
         <v>1237.120576001451</v>
       </c>
       <c r="E6" t="n">
-        <v>393.2853481917053</v>
+        <v>304.0333497485299</v>
       </c>
       <c r="F6" t="n">
         <v>23975.76916397665</v>
       </c>
       <c r="G6" t="n">
-        <v>22232.704025608</v>
+        <v>22124.4478053542</v>
       </c>
       <c r="H6" t="n">
-        <v>23975.67923296789</v>
+        <v>23974.2595916317</v>
       </c>
       <c r="I6" t="n">
-        <v>21532.30774837841</v>
+        <v>21536.66135183787</v>
       </c>
       <c r="J6" t="n">
-        <v>48.62192844956628</v>
+        <v>71.73474347243108</v>
       </c>
     </row>
     <row r="7">
@@ -719,22 +719,22 @@
         <v>8914.828758143189</v>
       </c>
       <c r="E8" t="n">
-        <v>180.4631534366874</v>
+        <v>190.5785021713387</v>
       </c>
       <c r="F8" t="n">
         <v>16485.3525975895</v>
       </c>
       <c r="G8" t="n">
-        <v>4553.89211985226</v>
+        <v>6045.461004073472</v>
       </c>
       <c r="H8" t="n">
-        <v>16487.29884896185</v>
+        <v>16486.27628709795</v>
       </c>
       <c r="I8" t="n">
         <v>14864.84893940221</v>
       </c>
       <c r="J8" t="n">
-        <v>40.05498549708958</v>
+        <v>57.90337597778035</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0.2970319122043515</v>
       </c>
       <c r="E10" t="n">
-        <v>6.378553470222484</v>
+        <v>4.57539946740896</v>
       </c>
       <c r="F10" t="n">
         <v>0.5923684558414695</v>
@@ -800,13 +800,13 @@
         <v>0.4981854110418555</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5923251423154977</v>
+        <v>0.5921106643998612</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6052957181474444</v>
+        <v>0.605241922027249</v>
       </c>
       <c r="J10" t="n">
-        <v>14.83102567175364</v>
+        <v>6.802872665244827</v>
       </c>
     </row>
     <row r="11">
@@ -863,22 +863,22 @@
         <v>0.4555245410713386</v>
       </c>
       <c r="E12" t="n">
-        <v>4.127605537892626</v>
+        <v>1.573611481571483</v>
       </c>
       <c r="F12" t="n">
         <v>0.5863975080012351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5797070920391136</v>
+        <v>0.5770194927500979</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5863959694931141</v>
+        <v>0.5859990243659711</v>
       </c>
       <c r="I12" t="n">
         <v>0.5999571749332518</v>
       </c>
       <c r="J12" t="n">
-        <v>6.201156847739399</v>
+        <v>4.196267607835116</v>
       </c>
     </row>
     <row r="13">
@@ -935,22 +935,22 @@
         <v>0.3571355626304675</v>
       </c>
       <c r="E14" t="n">
-        <v>4.957698844777817</v>
+        <v>0.8005321708113806</v>
       </c>
       <c r="F14" t="n">
         <v>0.5709397031663824</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5545583453790622</v>
+        <v>0.5534224212852537</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5709718343930549</v>
+        <v>0.5711402140706757</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5933371687547812</v>
+        <v>0.5933407416809126</v>
       </c>
       <c r="J14" t="n">
-        <v>5.283008508050425</v>
+        <v>5.673067094087542</v>
       </c>
     </row>
     <row r="15">
@@ -1007,22 +1007,22 @@
         <v>0.5227831521929686</v>
       </c>
       <c r="E16" t="n">
-        <v>3.138790361039546</v>
+        <v>7.622925364772072</v>
       </c>
       <c r="F16" t="n">
         <v>0.6090467270945127</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4113397598017161</v>
+        <v>0.4897449402226606</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6083401069126801</v>
+        <v>0.6083511135374698</v>
       </c>
       <c r="I16" t="n">
         <v>0.6371996189112458</v>
       </c>
       <c r="J16" t="n">
-        <v>13.46212935012528</v>
+        <v>11.94181479067238</v>
       </c>
     </row>
     <row r="17">
@@ -1079,7 +1079,7 @@
         <v>0.6302769034977607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4614500500829441</v>
+        <v>0.6188821255391934</v>
       </c>
       <c r="F18" t="n">
         <v>0.5210518335837945</v>
@@ -1088,13 +1088,13 @@
         <v>0.4217699364793865</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5210632334645875</v>
+        <v>0.5210352048910175</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5009265388966506</v>
+        <v>0.5010607494723366</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1942367027469519</v>
+        <v>0.2153706569779807</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>4</v>
@@ -1124,10 +1124,10 @@
         <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>8</v>
@@ -1151,22 +1151,22 @@
         <v>0.4209233283029717</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6717360371416181</v>
+        <v>0.7919418680510409</v>
       </c>
       <c r="F20" t="n">
         <v>0.525968655068758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4965821404509979</v>
+        <v>0.5175019391602956</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5259639116643898</v>
+        <v>0.5262333422911594</v>
       </c>
       <c r="I20" t="n">
         <v>0.4993265309068735</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1809421641975307</v>
+        <v>0.2192530821002328</v>
       </c>
     </row>
     <row r="21">
@@ -1181,25 +1181,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
@@ -1223,22 +1223,22 @@
         <v>0.6771743506881457</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6644253995649884</v>
+        <v>0.7766144638567607</v>
       </c>
       <c r="F22" t="n">
         <v>0.5372441699676417</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5480033368869814</v>
+        <v>0.5490833922001486</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5372150544351501</v>
+        <v>0.5370758526182318</v>
       </c>
       <c r="I22" t="n">
-        <v>0.512714077750078</v>
+        <v>0.5126956298950073</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2104269736688834</v>
+        <v>0.2282054047694881</v>
       </c>
     </row>
     <row r="23">
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
         <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1295,22 +1295,22 @@
         <v>0.5456897917493368</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6061808599084931</v>
+        <v>0.746851532327808</v>
       </c>
       <c r="F24" t="n">
         <v>0.5165263286216938</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5894873906277611</v>
+        <v>0.5177978695055276</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5167591292874544</v>
+        <v>0.5167360685954585</v>
       </c>
       <c r="I24" t="n">
         <v>0.4723827405142896</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1903397128883785</v>
+        <v>0.2159640507127025</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
